--- a/uni_craw_section_chapter_header/Craw_ko_en/ko_en_chapter_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/ko_en_chapter_notes_2024.xlsx
@@ -2051,10 +2051,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2346,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
